--- a/ig/ch-epl/StructureDefinition-ch-idmp-regulatedauthorization.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-idmp-regulatedauthorization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -789,7 +789,7 @@
     <t>Jurisdiction codes</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction|5.0.0</t>
   </si>
   <si>
     <t>Marketing Authorization.Country</t>
@@ -938,7 +938,7 @@
     <t>RegulatedAuthorization.indication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(ClinicalUseDefinition)
+    <t xml:space="preserve">CodeableReference(ClinicalUseDefinition|5.0.0)
 </t>
   </si>
   <si>
@@ -963,7 +963,7 @@
     <t>The overall intended use of a product.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/product-intended-use</t>
+    <t>http://hl7.org/fhir/ValueSet/product-intended-use|5.0.0</t>
   </si>
   <si>
     <t>RegulatedAuthorization.basis</t>
@@ -978,7 +978,7 @@
     <t>A legal or regulatory framework against which an authorization is granted, or other reasons for it.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-basis</t>
+    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-basis|5.0.0</t>
   </si>
   <si>
     <t>Marketing Authorization.Status Reasons.Legal Grounds</t>
@@ -1015,7 +1015,7 @@
     <t>RegulatedAuthorization.attachedDocument</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0)
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
     <t>The type of a case involved in an application.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-case-type</t>
+    <t>http://hl7.org/fhir/ValueSet/regulated-authorization-case-type|5.0.0</t>
   </si>
   <si>
     <t>Marketing Authorization Procedure.Procedure Type, Marketing Authorization Application.Application Type</t>
@@ -1106,7 +1106,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
   </si>
   <si>
     <t>RegulatedAuthorization.case.date[x]</t>
@@ -1475,7 +1475,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="77.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.31640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.84765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
